--- a/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20240303_LENA_Abstimmungen\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20240609_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E7934-DCE6-428F-95E1-1A3261F6BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD817D3-A12C-4A5B-93F4-91B535ED7305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="648">
   <si>
     <t>Typ</t>
   </si>
@@ -59,37 +59,61 @@
     <t>alle</t>
   </si>
   <si>
-    <t>AHV_13Rente</t>
-  </si>
-  <si>
-    <t>AHV_Renteninitiative</t>
-  </si>
-  <si>
-    <t>Aktueller Stand der Abstimmungen vom 3. März 2024</t>
-  </si>
-  <si>
-    <t>Etat actuel des votes au 3 mars 2024</t>
-  </si>
-  <si>
-    <t>Situazione attuale delle votazioni del 3 marzo 2024</t>
-  </si>
-  <si>
-    <t>"Initiative für eine 13. AHV-Rente"</t>
-  </si>
-  <si>
-    <t>Initiative pour une 13e rente AVS</t>
-  </si>
-  <si>
-    <t>Iniziativa popolare «Vivere meglio la pensione (Iniziativa per una 13esima mensilità AVS)»</t>
-  </si>
-  <si>
-    <t>"Renteninitiative"</t>
-  </si>
-  <si>
-    <t>Initiative des Jeunes PLR pour augmenter l'âge de la retraite</t>
-  </si>
-  <si>
-    <t>Iniziativa popolare «Per una previdenza vecchiaia sicura e sostenibile (Iniziativa sulle pensioni)»</t>
+    <t>CH_Praemienentlastung</t>
+  </si>
+  <si>
+    <t>CH_Kostenbremse</t>
+  </si>
+  <si>
+    <t>CH_Stopp_Impfpflicht</t>
+  </si>
+  <si>
+    <t>CH_Energieversorgung</t>
+  </si>
+  <si>
+    <t>Aktueller Stand der Abstimmungen vom 9. Juni 2024</t>
+  </si>
+  <si>
+    <t>Etat actuel des votes au 9 juin 2024</t>
+  </si>
+  <si>
+    <t>Situazione attuale delle votazioni del 9 giugno 2024</t>
+  </si>
+  <si>
+    <t>Prämienentlastungs-Initiative</t>
+  </si>
+  <si>
+    <t>Initiative "d’allègement des primes" du PS</t>
+  </si>
+  <si>
+    <t>Iniziativa per premi meno onerosi</t>
+  </si>
+  <si>
+    <t>Kostenbremse-Initiative</t>
+  </si>
+  <si>
+    <t>Initiative du Centre "pour un frein aux coûts"</t>
+  </si>
+  <si>
+    <t>Iniziativa per un freno ai costi</t>
+  </si>
+  <si>
+    <t>"Stopp-Impfpflicht"-Initiative</t>
+  </si>
+  <si>
+    <t>Initiative pour interdire la "vaccination obligatoire"</t>
+  </si>
+  <si>
+    <t>Iniziativa per la libertà e l’integrità fisica</t>
+  </si>
+  <si>
+    <t>Stromgesetz</t>
+  </si>
+  <si>
+    <t>Loi sur l'électricité</t>
+  </si>
+  <si>
+    <t>Legge federale del 29 settembre 2023 su un approvvigionamento elettrico sicuro con le energie rinnovabili</t>
   </si>
   <si>
     <t>de-DE</t>
@@ -101,1068 +125,2004 @@
     <t>it-CH</t>
   </si>
   <si>
-    <t>fQOig</t>
-  </si>
-  <si>
-    <t>FRvmx</t>
-  </si>
-  <si>
-    <t>a48uR</t>
-  </si>
-  <si>
-    <t>09ZZx</t>
-  </si>
-  <si>
-    <t>H9fAt</t>
-  </si>
-  <si>
-    <t>x9Qq3</t>
-  </si>
-  <si>
-    <t>aTn9Z</t>
-  </si>
-  <si>
-    <t>HI6Mz</t>
-  </si>
-  <si>
-    <t>sFjV6</t>
-  </si>
-  <si>
-    <t>CN3eL</t>
-  </si>
-  <si>
-    <t>sbdTZ</t>
-  </si>
-  <si>
-    <t>YE4Kk</t>
-  </si>
-  <si>
-    <t>q64IA</t>
-  </si>
-  <si>
-    <t>XpcN3</t>
-  </si>
-  <si>
-    <t>vSbiK</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/fQOig/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/FRvmx/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/a48uR/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/09ZZx/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/H9fAt/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/x9Qq3/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/aTn9Z/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/HI6Mz/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/sFjV6/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/CN3eL/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/sbdTZ/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/YE4Kk/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/q64IA/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/XpcN3/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/vSbiK/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Aktueller Stand der Abstimmungen vom 3. März 2024" aria-label="Balken (gestapelt)" id="datawrapper-chart-fQOig" src="https://datawrapper.dwcdn.net/fQOig/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="468" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Etat actuel des votes au 3 mars 2024" aria-label="Barres empilées" id="datawrapper-chart-FRvmx" src="https://datawrapper.dwcdn.net/FRvmx/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Situazione attuale delle votazioni del 3 marzo 2024" aria-label="Barre impilate" id="datawrapper-chart-a48uR" src="https://datawrapper.dwcdn.net/a48uR/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="468" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-09ZZx" src="https://datawrapper.dwcdn.net/09ZZx/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-H9fAt" src="https://datawrapper.dwcdn.net/H9fAt/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative pour une 13e rente AVS" aria-label="Carte" id="datawrapper-chart-x9Qq3" src="https://datawrapper.dwcdn.net/x9Qq3/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative pour une 13e rente AVS" aria-label="Carte" id="datawrapper-chart-aTn9Z" src="https://datawrapper.dwcdn.net/aTn9Z/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Iniziativa popolare «Vivere meglio la pensione (Iniziativa per una 13esima mensilità AVS)»" aria-label="Mappa" id="datawrapper-chart-HI6Mz" src="https://datawrapper.dwcdn.net/HI6Mz/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Iniziativa popolare «Vivere meglio la pensione (Iniziativa per una 13esima mensilità AVS)»" aria-label="Mappa" id="datawrapper-chart-sFjV6" src="https://datawrapper.dwcdn.net/sFjV6/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-CN3eL" src="https://datawrapper.dwcdn.net/CN3eL/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-sbdTZ" src="https://datawrapper.dwcdn.net/sbdTZ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative des Jeunes PLR pour augmenter l'âge de la retraite" aria-label="Carte" id="datawrapper-chart-YE4Kk" src="https://datawrapper.dwcdn.net/YE4Kk/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative des Jeunes PLR pour augmenter l'âge de la retraite" aria-label="Carte" id="datawrapper-chart-q64IA" src="https://datawrapper.dwcdn.net/q64IA/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Iniziativa popolare «Per una previdenza vecchiaia sicura e sostenibile (Iniziativa sulle pensioni)»" aria-label="Mappa" id="datawrapper-chart-XpcN3" src="https://datawrapper.dwcdn.net/XpcN3/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Iniziativa popolare «Per una previdenza vecchiaia sicura e sostenibile (Iniziativa sulle pensioni)»" aria-label="Mappa" id="datawrapper-chart-vSbiK" src="https://datawrapper.dwcdn.net/vSbiK/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:468px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/fQOig/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/fQOig/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:452px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/FRvmx/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/FRvmx/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:468px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/a48uR/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/a48uR/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/09ZZx/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/09ZZx/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/H9fAt/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/H9fAt/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/x9Qq3/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/x9Qq3/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/aTn9Z/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/aTn9Z/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/HI6Mz/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/HI6Mz/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/sFjV6/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/sFjV6/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/CN3eL/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/CN3eL/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/sbdTZ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/sbdTZ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/YE4Kk/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/YE4Kk/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/q64IA/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/q64IA/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/XpcN3/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/XpcN3/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/vSbiK/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/vSbiK/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>WOeni</t>
+  </si>
+  <si>
+    <t>5a6ve</t>
+  </si>
+  <si>
+    <t>RTK69</t>
+  </si>
+  <si>
+    <t>hPyWD</t>
+  </si>
+  <si>
+    <t>ZdqDI</t>
+  </si>
+  <si>
+    <t>nk5ME</t>
+  </si>
+  <si>
+    <t>M4iQd</t>
+  </si>
+  <si>
+    <t>pfmht</t>
+  </si>
+  <si>
+    <t>Edqpm</t>
+  </si>
+  <si>
+    <t>frrn4</t>
+  </si>
+  <si>
+    <t>IQadL</t>
+  </si>
+  <si>
+    <t>IWQdN</t>
+  </si>
+  <si>
+    <t>9Jiwd</t>
+  </si>
+  <si>
+    <t>WVGqv</t>
+  </si>
+  <si>
+    <t>NVKoM</t>
+  </si>
+  <si>
+    <t>YLF8g</t>
+  </si>
+  <si>
+    <t>Mvahl</t>
+  </si>
+  <si>
+    <t>FeL5E</t>
+  </si>
+  <si>
+    <t>nU4gU</t>
+  </si>
+  <si>
+    <t>TghEL</t>
+  </si>
+  <si>
+    <t>1WTfj</t>
+  </si>
+  <si>
+    <t>zEtAX</t>
+  </si>
+  <si>
+    <t>DgOIT</t>
+  </si>
+  <si>
+    <t>gnFWn</t>
+  </si>
+  <si>
+    <t>FRDId</t>
+  </si>
+  <si>
+    <t>8oAdP</t>
+  </si>
+  <si>
+    <t>y2qCl</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/WOeni/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/5a6ve/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/RTK69/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/hPyWD/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/ZdqDI/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/nk5ME/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/M4iQd/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/pfmht/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Edqpm/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/frrn4/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/IQadL/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/IWQdN/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/9Jiwd/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/WVGqv/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/NVKoM/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/YLF8g/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Mvahl/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/FeL5E/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/nU4gU/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/TghEL/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/1WTfj/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/zEtAX/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/DgOIT/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/gnFWn/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/FRDId/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/8oAdP/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/y2qCl/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Aktueller Stand der Abstimmungen vom 9. Juni 2024" aria-label="Balken (gestapelt)" id="datawrapper-chart-WOeni" src="https://datawrapper.dwcdn.net/WOeni/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="468" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Etat actuel des votes au 9 juin 2024" aria-label="Barres empilées" id="datawrapper-chart-5a6ve" src="https://datawrapper.dwcdn.net/5a6ve/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Situazione attuale delle votazioni del 9 giugno 2024" aria-label="Barre impilate" id="datawrapper-chart-RTK69" src="https://datawrapper.dwcdn.net/RTK69/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="468" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-hPyWD" src="https://datawrapper.dwcdn.net/hPyWD/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-ZdqDI" src="https://datawrapper.dwcdn.net/ZdqDI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative &amp;quot;d’allègement des primes&amp;quot; du PS" aria-label="Carte" id="datawrapper-chart-nk5ME" src="https://datawrapper.dwcdn.net/nk5ME/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative &amp;quot;d’allègement des primes&amp;quot; du PS" aria-label="Carte" id="datawrapper-chart-M4iQd" src="https://datawrapper.dwcdn.net/M4iQd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per premi meno onerosi" aria-label="Mappa" id="datawrapper-chart-pfmht" src="https://datawrapper.dwcdn.net/pfmht/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per premi meno onerosi" aria-label="Mappa" id="datawrapper-chart-Edqpm" src="https://datawrapper.dwcdn.net/Edqpm/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-frrn4" src="https://datawrapper.dwcdn.net/frrn4/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-IQadL" src="https://datawrapper.dwcdn.net/IQadL/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative du Centre &amp;quot;pour un frein aux coûts&amp;quot;" aria-label="Carte" id="datawrapper-chart-IWQdN" src="https://datawrapper.dwcdn.net/IWQdN/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative du Centre &amp;quot;pour un frein aux coûts&amp;quot;" aria-label="Carte" id="datawrapper-chart-9Jiwd" src="https://datawrapper.dwcdn.net/9Jiwd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per un freno ai costi" aria-label="Mappa" id="datawrapper-chart-WVGqv" src="https://datawrapper.dwcdn.net/WVGqv/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per un freno ai costi" aria-label="Mappa" id="datawrapper-chart-NVKoM" src="https://datawrapper.dwcdn.net/NVKoM/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-YLF8g" src="https://datawrapper.dwcdn.net/YLF8g/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-Mvahl" src="https://datawrapper.dwcdn.net/Mvahl/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour interdire la &amp;quot;vaccination obligatoire&amp;quot;" aria-label="Carte" id="datawrapper-chart-FeL5E" src="https://datawrapper.dwcdn.net/FeL5E/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour interdire la &amp;quot;vaccination obligatoire&amp;quot;" aria-label="Carte" id="datawrapper-chart-nU4gU" src="https://datawrapper.dwcdn.net/nU4gU/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per la libertà e l’integrità fisica" aria-label="Mappa" id="datawrapper-chart-TghEL" src="https://datawrapper.dwcdn.net/TghEL/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per la libertà e l’integrità fisica" aria-label="Mappa" id="datawrapper-chart-1WTfj" src="https://datawrapper.dwcdn.net/1WTfj/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-zEtAX" src="https://datawrapper.dwcdn.net/zEtAX/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-DgOIT" src="https://datawrapper.dwcdn.net/DgOIT/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi sur l'électricité" aria-label="Carte" id="datawrapper-chart-gnFWn" src="https://datawrapper.dwcdn.net/gnFWn/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi sur l'électricité" aria-label="Carte" id="datawrapper-chart-FRDId" src="https://datawrapper.dwcdn.net/FRDId/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Legge federale del 29 settembre 2023 su un approvvigionamento elettrico sicuro con le energie rinnovabili" aria-label="Mappa" id="datawrapper-chart-8oAdP" src="https://datawrapper.dwcdn.net/8oAdP/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Legge federale del 29 settembre 2023 su un approvvigionamento elettrico sicuro con le energie rinnovabili" aria-label="Mappa" id="datawrapper-chart-y2qCl" src="https://datawrapper.dwcdn.net/y2qCl/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:468px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/WOeni/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/WOeni/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:452px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/5a6ve/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/5a6ve/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:468px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/RTK69/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/RTK69/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/hPyWD/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/hPyWD/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/ZdqDI/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/ZdqDI/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/nk5ME/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/nk5ME/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/M4iQd/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/M4iQd/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/pfmht/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/pfmht/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Edqpm/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Edqpm/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/frrn4/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/frrn4/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/IQadL/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/IQadL/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/IWQdN/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/IWQdN/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/9Jiwd/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/9Jiwd/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/WVGqv/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/WVGqv/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/NVKoM/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/NVKoM/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/YLF8g/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/YLF8g/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Mvahl/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Mvahl/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/FeL5E/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/FeL5E/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/nU4gU/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/nU4gU/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/TghEL/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/TghEL/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/1WTfj/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/1WTfj/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/zEtAX/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/zEtAX/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/DgOIT/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/DgOIT/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/gnFWn/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/gnFWn/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/FRDId/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/FRDId/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/8oAdP/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/8oAdP/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/y2qCl/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/y2qCl/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton AG</t>
   </si>
   <si>
-    <t>OBk34</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/OBk34/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-OBk34" src="https://datawrapper.dwcdn.net/OBk34/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/OBk34/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/OBk34/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>KY9AU</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/KY9AU/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-KY9AU" src="https://datawrapper.dwcdn.net/KY9AU/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/KY9AU/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/KY9AU/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>peAGq</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/peAGq/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-peAGq" src="https://datawrapper.dwcdn.net/peAGq/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/peAGq/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/peAGq/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>4DSgw</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/4DSgw/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-4DSgw" src="https://datawrapper.dwcdn.net/4DSgw/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/4DSgw/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/4DSgw/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>aJXOm</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/aJXOm/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-aJXOm" src="https://datawrapper.dwcdn.net/aJXOm/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/aJXOm/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/aJXOm/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>tvGxC</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/tvGxC/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-tvGxC" src="https://datawrapper.dwcdn.net/tvGxC/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/tvGxC/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/tvGxC/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton AI</t>
   </si>
   <si>
-    <t>ThAm0</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/ThAm0/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-ThAm0" src="https://datawrapper.dwcdn.net/ThAm0/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/ThAm0/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/ThAm0/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>cg09P</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/cg09P/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-cg09P" src="https://datawrapper.dwcdn.net/cg09P/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/cg09P/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/cg09P/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>0kyGP</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/0kyGP/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-0kyGP" src="https://datawrapper.dwcdn.net/0kyGP/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/0kyGP/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/0kyGP/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>tnmT5</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/tnmT5/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-tnmT5" src="https://datawrapper.dwcdn.net/tnmT5/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/tnmT5/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/tnmT5/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>aRp4B</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/aRp4B/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-aRp4B" src="https://datawrapper.dwcdn.net/aRp4B/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/aRp4B/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/aRp4B/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>74i84</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/74i84/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-74i84" src="https://datawrapper.dwcdn.net/74i84/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/74i84/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/74i84/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton AR</t>
   </si>
   <si>
-    <t>Nrycy</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/Nrycy/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-Nrycy" src="https://datawrapper.dwcdn.net/Nrycy/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Nrycy/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Nrycy/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>fbtKU</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/fbtKU/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-fbtKU" src="https://datawrapper.dwcdn.net/fbtKU/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/fbtKU/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/fbtKU/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>g4wFa</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/g4wFa/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-g4wFa" src="https://datawrapper.dwcdn.net/g4wFa/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/g4wFa/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/g4wFa/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>uX4vt</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/uX4vt/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-uX4vt" src="https://datawrapper.dwcdn.net/uX4vt/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/uX4vt/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/uX4vt/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>062Fj</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/062Fj/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-062Fj" src="https://datawrapper.dwcdn.net/062Fj/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/062Fj/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/062Fj/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>fGh51</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/fGh51/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-fGh51" src="https://datawrapper.dwcdn.net/fGh51/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/fGh51/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/fGh51/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton BE</t>
   </si>
   <si>
-    <t>UyI0a</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/UyI0a/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-UyI0a" src="https://datawrapper.dwcdn.net/UyI0a/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/UyI0a/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/UyI0a/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>dZ1V5</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/dZ1V5/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-dZ1V5" src="https://datawrapper.dwcdn.net/dZ1V5/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/dZ1V5/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/dZ1V5/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>ZiiBo</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/ZiiBo/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative des Jeunes PLR pour augmenter l'âge de la retraite" aria-label="Carte" id="datawrapper-chart-ZiiBo" src="https://datawrapper.dwcdn.net/ZiiBo/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/ZiiBo/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/ZiiBo/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>ZJK9G</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/ZJK9G/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative pour une 13e rente AVS" aria-label="Carte" id="datawrapper-chart-ZJK9G" src="https://datawrapper.dwcdn.net/ZJK9G/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/ZJK9G/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/ZJK9G/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>cnHy7</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/cnHy7/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-cnHy7" src="https://datawrapper.dwcdn.net/cnHy7/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/cnHy7/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/cnHy7/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>w3PxG</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/w3PxG/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative &amp;quot;d’allègement des primes&amp;quot; du PS" aria-label="Carte" id="datawrapper-chart-w3PxG" src="https://datawrapper.dwcdn.net/w3PxG/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/w3PxG/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/w3PxG/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>KfPtj</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/KfPtj/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-KfPtj" src="https://datawrapper.dwcdn.net/KfPtj/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/KfPtj/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/KfPtj/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>wWXRL</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/wWXRL/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative du Centre &amp;quot;pour un frein aux coûts&amp;quot;" aria-label="Carte" id="datawrapper-chart-wWXRL" src="https://datawrapper.dwcdn.net/wWXRL/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/wWXRL/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/wWXRL/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>RvOwk</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/RvOwk/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-RvOwk" src="https://datawrapper.dwcdn.net/RvOwk/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/RvOwk/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/RvOwk/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>qVieG</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/qVieG/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour interdire la &amp;quot;vaccination obligatoire&amp;quot;" aria-label="Carte" id="datawrapper-chart-qVieG" src="https://datawrapper.dwcdn.net/qVieG/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qVieG/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qVieG/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>u06JF</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/u06JF/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-u06JF" src="https://datawrapper.dwcdn.net/u06JF/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/u06JF/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/u06JF/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>CklvP</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/CklvP/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi sur l'électricité" aria-label="Carte" id="datawrapper-chart-CklvP" src="https://datawrapper.dwcdn.net/CklvP/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/CklvP/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/CklvP/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton BL</t>
   </si>
   <si>
-    <t>vqZe6</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/vqZe6/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-vqZe6" src="https://datawrapper.dwcdn.net/vqZe6/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/vqZe6/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/vqZe6/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>xj89V</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/xj89V/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-xj89V" src="https://datawrapper.dwcdn.net/xj89V/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/xj89V/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/xj89V/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>rckK0</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/rckK0/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-rckK0" src="https://datawrapper.dwcdn.net/rckK0/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/rckK0/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/rckK0/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>W8K5X</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/W8K5X/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-W8K5X" src="https://datawrapper.dwcdn.net/W8K5X/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/W8K5X/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/W8K5X/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>32xk7</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/32xk7/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-32xk7" src="https://datawrapper.dwcdn.net/32xk7/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/32xk7/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/32xk7/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>qCmK1</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/qCmK1/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-qCmK1" src="https://datawrapper.dwcdn.net/qCmK1/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qCmK1/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qCmK1/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton BS</t>
   </si>
   <si>
-    <t>Ts655</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/Ts655/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-Ts655" src="https://datawrapper.dwcdn.net/Ts655/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Ts655/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Ts655/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>7xSxB</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/7xSxB/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-7xSxB" src="https://datawrapper.dwcdn.net/7xSxB/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/7xSxB/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/7xSxB/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>5xx8W</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/5xx8W/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-5xx8W" src="https://datawrapper.dwcdn.net/5xx8W/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/5xx8W/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/5xx8W/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>qZxNh</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/qZxNh/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-qZxNh" src="https://datawrapper.dwcdn.net/qZxNh/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qZxNh/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qZxNh/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>MIqAA</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/MIqAA/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-MIqAA" src="https://datawrapper.dwcdn.net/MIqAA/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/MIqAA/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/MIqAA/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>zqhwT</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/zqhwT/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-zqhwT" src="https://datawrapper.dwcdn.net/zqhwT/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/zqhwT/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/zqhwT/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton FR</t>
   </si>
   <si>
-    <t>NgwpA</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/NgwpA/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-NgwpA" src="https://datawrapper.dwcdn.net/NgwpA/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/NgwpA/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/NgwpA/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>LjIky</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/LjIky/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-LjIky" src="https://datawrapper.dwcdn.net/LjIky/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/LjIky/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/LjIky/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>II9gV</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/II9gV/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative des Jeunes PLR pour augmenter l'âge de la retraite" aria-label="Carte" id="datawrapper-chart-II9gV" src="https://datawrapper.dwcdn.net/II9gV/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/II9gV/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/II9gV/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>orXz0</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/orXz0/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative pour une 13e rente AVS" aria-label="Carte" id="datawrapper-chart-orXz0" src="https://datawrapper.dwcdn.net/orXz0/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/orXz0/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/orXz0/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>pNSAK</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/pNSAK/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-pNSAK" src="https://datawrapper.dwcdn.net/pNSAK/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/pNSAK/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/pNSAK/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>iC5Tg</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/iC5Tg/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative &amp;quot;d’allègement des primes&amp;quot; du PS" aria-label="Carte" id="datawrapper-chart-iC5Tg" src="https://datawrapper.dwcdn.net/iC5Tg/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/iC5Tg/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/iC5Tg/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Bytey</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Bytey/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-Bytey" src="https://datawrapper.dwcdn.net/Bytey/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Bytey/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Bytey/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>PrpX1</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/PrpX1/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative du Centre &amp;quot;pour un frein aux coûts&amp;quot;" aria-label="Carte" id="datawrapper-chart-PrpX1" src="https://datawrapper.dwcdn.net/PrpX1/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/PrpX1/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/PrpX1/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Gmyib</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Gmyib/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-Gmyib" src="https://datawrapper.dwcdn.net/Gmyib/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Gmyib/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Gmyib/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>tPqRH</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/tPqRH/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour interdire la &amp;quot;vaccination obligatoire&amp;quot;" aria-label="Carte" id="datawrapper-chart-tPqRH" src="https://datawrapper.dwcdn.net/tPqRH/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/tPqRH/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/tPqRH/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>xgzZv</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/xgzZv/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-xgzZv" src="https://datawrapper.dwcdn.net/xgzZv/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/xgzZv/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/xgzZv/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>fcRN2</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/fcRN2/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi sur l'électricité" aria-label="Carte" id="datawrapper-chart-fcRN2" src="https://datawrapper.dwcdn.net/fcRN2/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/fcRN2/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/fcRN2/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton GE</t>
   </si>
   <si>
-    <t>HIBsZ</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/HIBsZ/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative des Jeunes PLR pour augmenter l'âge de la retraite" aria-label="Carte" id="datawrapper-chart-HIBsZ" src="https://datawrapper.dwcdn.net/HIBsZ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/HIBsZ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/HIBsZ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Y0Q7O</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/Y0Q7O/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative pour une 13e rente AVS" aria-label="Carte" id="datawrapper-chart-Y0Q7O" src="https://datawrapper.dwcdn.net/Y0Q7O/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Y0Q7O/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Y0Q7O/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>uCKM5</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/uCKM5/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative &amp;quot;d’allègement des primes&amp;quot; du PS" aria-label="Carte" id="datawrapper-chart-uCKM5" src="https://datawrapper.dwcdn.net/uCKM5/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/uCKM5/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/uCKM5/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>e8Eji</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/e8Eji/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative du Centre &amp;quot;pour un frein aux coûts&amp;quot;" aria-label="Carte" id="datawrapper-chart-e8Eji" src="https://datawrapper.dwcdn.net/e8Eji/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/e8Eji/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/e8Eji/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>bgozd</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/bgozd/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour interdire la &amp;quot;vaccination obligatoire&amp;quot;" aria-label="Carte" id="datawrapper-chart-bgozd" src="https://datawrapper.dwcdn.net/bgozd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/bgozd/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/bgozd/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>XCwnd</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/XCwnd/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi sur l'électricité" aria-label="Carte" id="datawrapper-chart-XCwnd" src="https://datawrapper.dwcdn.net/XCwnd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/XCwnd/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/XCwnd/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton GL</t>
   </si>
   <si>
-    <t>H5Ud3</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/H5Ud3/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-H5Ud3" src="https://datawrapper.dwcdn.net/H5Ud3/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/H5Ud3/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/H5Ud3/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>U27yk</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/U27yk/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-U27yk" src="https://datawrapper.dwcdn.net/U27yk/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/U27yk/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/U27yk/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>Pm6T2</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Pm6T2/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-Pm6T2" src="https://datawrapper.dwcdn.net/Pm6T2/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Pm6T2/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Pm6T2/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>yn9vM</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/yn9vM/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-yn9vM" src="https://datawrapper.dwcdn.net/yn9vM/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/yn9vM/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/yn9vM/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>TFtLo</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/TFtLo/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-TFtLo" src="https://datawrapper.dwcdn.net/TFtLo/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/TFtLo/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/TFtLo/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>R323m</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/R323m/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-R323m" src="https://datawrapper.dwcdn.net/R323m/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/R323m/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/R323m/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton GR</t>
   </si>
   <si>
-    <t>pb85c</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/pb85c/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-pb85c" src="https://datawrapper.dwcdn.net/pb85c/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/pb85c/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/pb85c/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>UOj6f</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/UOj6f/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-UOj6f" src="https://datawrapper.dwcdn.net/UOj6f/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/UOj6f/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/UOj6f/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>9md2m</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/9md2m/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Iniziativa popolare «Per una previdenza vecchiaia sicura e sostenibile (Iniziativa sulle pensioni)»" aria-label="Mappa" id="datawrapper-chart-9md2m" src="https://datawrapper.dwcdn.net/9md2m/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/9md2m/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/9md2m/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>hYaw8</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/hYaw8/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Iniziativa popolare «Vivere meglio la pensione (Iniziativa per una 13esima mensilità AVS)»" aria-label="Mappa" id="datawrapper-chart-hYaw8" src="https://datawrapper.dwcdn.net/hYaw8/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/hYaw8/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/hYaw8/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>vNIOH</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/vNIOH/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-vNIOH" src="https://datawrapper.dwcdn.net/vNIOH/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/vNIOH/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/vNIOH/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>uDyRX</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/uDyRX/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per premi meno onerosi" aria-label="Mappa" id="datawrapper-chart-uDyRX" src="https://datawrapper.dwcdn.net/uDyRX/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/uDyRX/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/uDyRX/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>jejqs</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/jejqs/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-jejqs" src="https://datawrapper.dwcdn.net/jejqs/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/jejqs/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/jejqs/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>4m9ms</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/4m9ms/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per un freno ai costi" aria-label="Mappa" id="datawrapper-chart-4m9ms" src="https://datawrapper.dwcdn.net/4m9ms/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/4m9ms/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/4m9ms/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>8AQOJ</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/8AQOJ/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-8AQOJ" src="https://datawrapper.dwcdn.net/8AQOJ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/8AQOJ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/8AQOJ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>DyOXj</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/DyOXj/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per la libertà e l’integrità fisica" aria-label="Mappa" id="datawrapper-chart-DyOXj" src="https://datawrapper.dwcdn.net/DyOXj/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/DyOXj/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/DyOXj/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Y4spF</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Y4spF/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-Y4spF" src="https://datawrapper.dwcdn.net/Y4spF/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Y4spF/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Y4spF/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>k1a2y</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/k1a2y/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Legge federale del 29 settembre 2023 su un approvvigionamento elettrico sicuro con le energie rinnovabili" aria-label="Mappa" id="datawrapper-chart-k1a2y" src="https://datawrapper.dwcdn.net/k1a2y/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/k1a2y/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/k1a2y/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton JU</t>
   </si>
   <si>
-    <t>WTqzO</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/WTqzO/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative des Jeunes PLR pour augmenter l'âge de la retraite" aria-label="Carte" id="datawrapper-chart-WTqzO" src="https://datawrapper.dwcdn.net/WTqzO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/WTqzO/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/WTqzO/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>GhOpb</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/GhOpb/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative pour une 13e rente AVS" aria-label="Carte" id="datawrapper-chart-GhOpb" src="https://datawrapper.dwcdn.net/GhOpb/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/GhOpb/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/GhOpb/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>byXHA</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/byXHA/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative &amp;quot;d’allègement des primes&amp;quot; du PS" aria-label="Carte" id="datawrapper-chart-byXHA" src="https://datawrapper.dwcdn.net/byXHA/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/byXHA/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/byXHA/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>mYBzl</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/mYBzl/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative du Centre &amp;quot;pour un frein aux coûts&amp;quot;" aria-label="Carte" id="datawrapper-chart-mYBzl" src="https://datawrapper.dwcdn.net/mYBzl/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/mYBzl/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/mYBzl/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>bmIuj</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/bmIuj/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour interdire la &amp;quot;vaccination obligatoire&amp;quot;" aria-label="Carte" id="datawrapper-chart-bmIuj" src="https://datawrapper.dwcdn.net/bmIuj/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/bmIuj/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/bmIuj/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>iCogy</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/iCogy/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi sur l'électricité" aria-label="Carte" id="datawrapper-chart-iCogy" src="https://datawrapper.dwcdn.net/iCogy/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/iCogy/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/iCogy/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton LU</t>
   </si>
   <si>
-    <t>mfB2D</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/mfB2D/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-mfB2D" src="https://datawrapper.dwcdn.net/mfB2D/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/mfB2D/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/mfB2D/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>V7OCF</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/V7OCF/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-V7OCF" src="https://datawrapper.dwcdn.net/V7OCF/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/V7OCF/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/V7OCF/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>axKO7</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/axKO7/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-axKO7" src="https://datawrapper.dwcdn.net/axKO7/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/axKO7/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/axKO7/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>CEMNt</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/CEMNt/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-CEMNt" src="https://datawrapper.dwcdn.net/CEMNt/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/CEMNt/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/CEMNt/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>5fpgD</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/5fpgD/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-5fpgD" src="https://datawrapper.dwcdn.net/5fpgD/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/5fpgD/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/5fpgD/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>xMZ9r</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/xMZ9r/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-xMZ9r" src="https://datawrapper.dwcdn.net/xMZ9r/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/xMZ9r/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/xMZ9r/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton NE</t>
   </si>
   <si>
-    <t>JAMMp</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/JAMMp/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative des Jeunes PLR pour augmenter l'âge de la retraite" aria-label="Carte" id="datawrapper-chart-JAMMp" src="https://datawrapper.dwcdn.net/JAMMp/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/JAMMp/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/JAMMp/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>h0z6G</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/h0z6G/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative pour une 13e rente AVS" aria-label="Carte" id="datawrapper-chart-h0z6G" src="https://datawrapper.dwcdn.net/h0z6G/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/h0z6G/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/h0z6G/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>z33e6</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/z33e6/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative &amp;quot;d’allègement des primes&amp;quot; du PS" aria-label="Carte" id="datawrapper-chart-z33e6" src="https://datawrapper.dwcdn.net/z33e6/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/z33e6/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/z33e6/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>OVPJq</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/OVPJq/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative du Centre &amp;quot;pour un frein aux coûts&amp;quot;" aria-label="Carte" id="datawrapper-chart-OVPJq" src="https://datawrapper.dwcdn.net/OVPJq/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/OVPJq/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/OVPJq/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>MyK0u</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/MyK0u/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour interdire la &amp;quot;vaccination obligatoire&amp;quot;" aria-label="Carte" id="datawrapper-chart-MyK0u" src="https://datawrapper.dwcdn.net/MyK0u/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/MyK0u/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/MyK0u/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>IDCT9</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/IDCT9/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi sur l'électricité" aria-label="Carte" id="datawrapper-chart-IDCT9" src="https://datawrapper.dwcdn.net/IDCT9/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/IDCT9/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/IDCT9/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton NW</t>
   </si>
   <si>
-    <t>5U79A</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/5U79A/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-5U79A" src="https://datawrapper.dwcdn.net/5U79A/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/5U79A/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/5U79A/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>RJWid</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/RJWid/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-RJWid" src="https://datawrapper.dwcdn.net/RJWid/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/RJWid/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/RJWid/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>TWELu</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/TWELu/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-TWELu" src="https://datawrapper.dwcdn.net/TWELu/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/TWELu/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/TWELu/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>xZgWC</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/xZgWC/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-xZgWC" src="https://datawrapper.dwcdn.net/xZgWC/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/xZgWC/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/xZgWC/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>8PwYO</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/8PwYO/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-8PwYO" src="https://datawrapper.dwcdn.net/8PwYO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/8PwYO/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/8PwYO/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>pHimd</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/pHimd/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-pHimd" src="https://datawrapper.dwcdn.net/pHimd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/pHimd/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/pHimd/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton OW</t>
   </si>
   <si>
-    <t>BNWdK</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/BNWdK/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-BNWdK" src="https://datawrapper.dwcdn.net/BNWdK/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/BNWdK/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/BNWdK/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>NbnfO</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/NbnfO/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-NbnfO" src="https://datawrapper.dwcdn.net/NbnfO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/NbnfO/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/NbnfO/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>qDNoF</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/qDNoF/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-qDNoF" src="https://datawrapper.dwcdn.net/qDNoF/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qDNoF/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qDNoF/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>qMSoR</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/qMSoR/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-qMSoR" src="https://datawrapper.dwcdn.net/qMSoR/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qMSoR/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qMSoR/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>jJkrh</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/jJkrh/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-jJkrh" src="https://datawrapper.dwcdn.net/jJkrh/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/jJkrh/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/jJkrh/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>GJX0g</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/GJX0g/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-GJX0g" src="https://datawrapper.dwcdn.net/GJX0g/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/GJX0g/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/GJX0g/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton SG</t>
   </si>
   <si>
-    <t>Agjo6</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/Agjo6/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-Agjo6" src="https://datawrapper.dwcdn.net/Agjo6/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Agjo6/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Agjo6/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>hz8Zk</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/hz8Zk/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-hz8Zk" src="https://datawrapper.dwcdn.net/hz8Zk/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/hz8Zk/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/hz8Zk/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>MkBe7</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/MkBe7/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-MkBe7" src="https://datawrapper.dwcdn.net/MkBe7/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/MkBe7/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/MkBe7/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>VBZKQ</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/VBZKQ/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-VBZKQ" src="https://datawrapper.dwcdn.net/VBZKQ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/VBZKQ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/VBZKQ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>2ur4p</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/2ur4p/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-2ur4p" src="https://datawrapper.dwcdn.net/2ur4p/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/2ur4p/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/2ur4p/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>FdIq3</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/FdIq3/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-FdIq3" src="https://datawrapper.dwcdn.net/FdIq3/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/FdIq3/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/FdIq3/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton SH</t>
   </si>
   <si>
-    <t>4Iaza</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/4Iaza/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-4Iaza" src="https://datawrapper.dwcdn.net/4Iaza/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/4Iaza/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/4Iaza/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>rGIvI</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/rGIvI/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-rGIvI" src="https://datawrapper.dwcdn.net/rGIvI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/rGIvI/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/rGIvI/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>MvECL</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/MvECL/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-MvECL" src="https://datawrapper.dwcdn.net/MvECL/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/MvECL/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/MvECL/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>ymyZd</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/ymyZd/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-ymyZd" src="https://datawrapper.dwcdn.net/ymyZd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/ymyZd/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/ymyZd/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>uopNZ</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/uopNZ/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-uopNZ" src="https://datawrapper.dwcdn.net/uopNZ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/uopNZ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/uopNZ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>1nMv3</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/1nMv3/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-1nMv3" src="https://datawrapper.dwcdn.net/1nMv3/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/1nMv3/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/1nMv3/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton SO</t>
   </si>
   <si>
-    <t>MTa6j</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/MTa6j/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-MTa6j" src="https://datawrapper.dwcdn.net/MTa6j/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/MTa6j/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/MTa6j/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>HdtTW</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/HdtTW/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-HdtTW" src="https://datawrapper.dwcdn.net/HdtTW/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/HdtTW/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/HdtTW/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>YjNb4</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/YjNb4/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-YjNb4" src="https://datawrapper.dwcdn.net/YjNb4/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/YjNb4/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/YjNb4/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>mQQNV</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/mQQNV/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-mQQNV" src="https://datawrapper.dwcdn.net/mQQNV/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/mQQNV/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/mQQNV/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>JGfOC</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/JGfOC/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-JGfOC" src="https://datawrapper.dwcdn.net/JGfOC/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/JGfOC/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/JGfOC/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>5tKJe</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/5tKJe/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-5tKJe" src="https://datawrapper.dwcdn.net/5tKJe/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/5tKJe/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/5tKJe/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton SZ</t>
   </si>
   <si>
-    <t>pFELG</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/pFELG/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-pFELG" src="https://datawrapper.dwcdn.net/pFELG/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/pFELG/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/pFELG/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>TKi6F</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/TKi6F/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-TKi6F" src="https://datawrapper.dwcdn.net/TKi6F/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/TKi6F/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/TKi6F/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>2CoWB</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/2CoWB/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-2CoWB" src="https://datawrapper.dwcdn.net/2CoWB/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/2CoWB/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/2CoWB/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>hekE7</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/hekE7/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-hekE7" src="https://datawrapper.dwcdn.net/hekE7/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/hekE7/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/hekE7/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>7UoHO</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/7UoHO/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-7UoHO" src="https://datawrapper.dwcdn.net/7UoHO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/7UoHO/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/7UoHO/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>NY1uU</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/NY1uU/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-NY1uU" src="https://datawrapper.dwcdn.net/NY1uU/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/NY1uU/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/NY1uU/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton TG</t>
   </si>
   <si>
-    <t>QUoQQ</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/QUoQQ/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-QUoQQ" src="https://datawrapper.dwcdn.net/QUoQQ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/QUoQQ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/QUoQQ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>bpshi</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/bpshi/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-bpshi" src="https://datawrapper.dwcdn.net/bpshi/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/bpshi/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/bpshi/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>XxZnI</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/XxZnI/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-XxZnI" src="https://datawrapper.dwcdn.net/XxZnI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/XxZnI/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/XxZnI/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>sTYaA</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/sTYaA/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-sTYaA" src="https://datawrapper.dwcdn.net/sTYaA/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/sTYaA/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/sTYaA/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>D4bL9</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/D4bL9/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-D4bL9" src="https://datawrapper.dwcdn.net/D4bL9/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/D4bL9/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/D4bL9/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>xUPYV</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/xUPYV/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-xUPYV" src="https://datawrapper.dwcdn.net/xUPYV/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/xUPYV/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/xUPYV/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton TI</t>
   </si>
   <si>
-    <t>6E0ka</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/6E0ka/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Iniziativa popolare «Per una previdenza vecchiaia sicura e sostenibile (Iniziativa sulle pensioni)»" aria-label="Mappa" id="datawrapper-chart-6E0ka" src="https://datawrapper.dwcdn.net/6E0ka/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/6E0ka/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/6E0ka/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>jE5x9</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/jE5x9/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Iniziativa popolare «Vivere meglio la pensione (Iniziativa per una 13esima mensilità AVS)»" aria-label="Mappa" id="datawrapper-chart-jE5x9" src="https://datawrapper.dwcdn.net/jE5x9/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/jE5x9/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/jE5x9/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>Kk5U1</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Kk5U1/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per premi meno onerosi" aria-label="Mappa" id="datawrapper-chart-Kk5U1" src="https://datawrapper.dwcdn.net/Kk5U1/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Kk5U1/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Kk5U1/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>zW2ug</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/zW2ug/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per un freno ai costi" aria-label="Mappa" id="datawrapper-chart-zW2ug" src="https://datawrapper.dwcdn.net/zW2ug/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/zW2ug/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/zW2ug/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>LdkAE</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/LdkAE/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per la libertà e l’integrità fisica" aria-label="Mappa" id="datawrapper-chart-LdkAE" src="https://datawrapper.dwcdn.net/LdkAE/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/LdkAE/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/LdkAE/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>6UjMw</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/6UjMw/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Legge federale del 29 settembre 2023 su un approvvigionamento elettrico sicuro con le energie rinnovabili" aria-label="Mappa" id="datawrapper-chart-6UjMw" src="https://datawrapper.dwcdn.net/6UjMw/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/6UjMw/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/6UjMw/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton UR</t>
   </si>
   <si>
-    <t>bsCtO</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/bsCtO/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-bsCtO" src="https://datawrapper.dwcdn.net/bsCtO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/bsCtO/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/bsCtO/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>zqzD1</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/zqzD1/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-zqzD1" src="https://datawrapper.dwcdn.net/zqzD1/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/zqzD1/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/zqzD1/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>C1LSZ</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/C1LSZ/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-C1LSZ" src="https://datawrapper.dwcdn.net/C1LSZ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/C1LSZ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/C1LSZ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>j1i8w</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/j1i8w/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-j1i8w" src="https://datawrapper.dwcdn.net/j1i8w/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/j1i8w/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/j1i8w/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>qrttq</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/qrttq/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-qrttq" src="https://datawrapper.dwcdn.net/qrttq/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qrttq/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qrttq/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>C8V6E</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/C8V6E/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-C8V6E" src="https://datawrapper.dwcdn.net/C8V6E/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/C8V6E/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/C8V6E/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton VD</t>
   </si>
   <si>
-    <t>A7B9S</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/A7B9S/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative des Jeunes PLR pour augmenter l'âge de la retraite" aria-label="Carte" id="datawrapper-chart-A7B9S" src="https://datawrapper.dwcdn.net/A7B9S/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/A7B9S/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/A7B9S/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>MVk47</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/MVk47/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative pour une 13e rente AVS" aria-label="Carte" id="datawrapper-chart-MVk47" src="https://datawrapper.dwcdn.net/MVk47/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/MVk47/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/MVk47/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>BE1pd</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/BE1pd/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative &amp;quot;d’allègement des primes&amp;quot; du PS" aria-label="Carte" id="datawrapper-chart-BE1pd" src="https://datawrapper.dwcdn.net/BE1pd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/BE1pd/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/BE1pd/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>ROx3k</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/ROx3k/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative du Centre &amp;quot;pour un frein aux coûts&amp;quot;" aria-label="Carte" id="datawrapper-chart-ROx3k" src="https://datawrapper.dwcdn.net/ROx3k/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/ROx3k/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/ROx3k/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>LEUsQ</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/LEUsQ/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour interdire la &amp;quot;vaccination obligatoire&amp;quot;" aria-label="Carte" id="datawrapper-chart-LEUsQ" src="https://datawrapper.dwcdn.net/LEUsQ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/LEUsQ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/LEUsQ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>oEpgz</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/oEpgz/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi sur l'électricité" aria-label="Carte" id="datawrapper-chart-oEpgz" src="https://datawrapper.dwcdn.net/oEpgz/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/oEpgz/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/oEpgz/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton VS</t>
   </si>
   <si>
-    <t>L6jLQ</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/L6jLQ/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-L6jLQ" src="https://datawrapper.dwcdn.net/L6jLQ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/L6jLQ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/L6jLQ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Ou7xq</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/Ou7xq/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-Ou7xq" src="https://datawrapper.dwcdn.net/Ou7xq/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Ou7xq/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Ou7xq/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>LTsNI</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/LTsNI/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative des Jeunes PLR pour augmenter l'âge de la retraite" aria-label="Carte" id="datawrapper-chart-LTsNI" src="https://datawrapper.dwcdn.net/LTsNI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/LTsNI/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/LTsNI/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>4acxI</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/4acxI/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Initiative pour une 13e rente AVS" aria-label="Carte" id="datawrapper-chart-4acxI" src="https://datawrapper.dwcdn.net/4acxI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/4acxI/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/4acxI/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>1pBDb</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/1pBDb/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-1pBDb" src="https://datawrapper.dwcdn.net/1pBDb/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/1pBDb/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/1pBDb/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>v3RBd</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/v3RBd/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative &amp;quot;d’allègement des primes&amp;quot; du PS" aria-label="Carte" id="datawrapper-chart-v3RBd" src="https://datawrapper.dwcdn.net/v3RBd/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/v3RBd/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/v3RBd/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>32jmS</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/32jmS/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-32jmS" src="https://datawrapper.dwcdn.net/32jmS/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/32jmS/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/32jmS/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Wm01C</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Wm01C/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative du Centre &amp;quot;pour un frein aux coûts&amp;quot;" aria-label="Carte" id="datawrapper-chart-Wm01C" src="https://datawrapper.dwcdn.net/Wm01C/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Wm01C/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Wm01C/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>OUlGK</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/OUlGK/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-OUlGK" src="https://datawrapper.dwcdn.net/OUlGK/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/OUlGK/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/OUlGK/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>mAGnw</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/mAGnw/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour interdire la &amp;quot;vaccination obligatoire&amp;quot;" aria-label="Carte" id="datawrapper-chart-mAGnw" src="https://datawrapper.dwcdn.net/mAGnw/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/mAGnw/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/mAGnw/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>FvmJQ</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/FvmJQ/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-FvmJQ" src="https://datawrapper.dwcdn.net/FvmJQ/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/FvmJQ/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/FvmJQ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>1h9G8</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/1h9G8/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi sur l'électricité" aria-label="Carte" id="datawrapper-chart-1h9G8" src="https://datawrapper.dwcdn.net/1h9G8/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/1h9G8/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/1h9G8/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton ZG</t>
   </si>
   <si>
-    <t>lFArP</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/lFArP/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-lFArP" src="https://datawrapper.dwcdn.net/lFArP/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/lFArP/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/lFArP/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>KnNpG</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/KnNpG/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-KnNpG" src="https://datawrapper.dwcdn.net/KnNpG/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/KnNpG/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/KnNpG/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>3BcNE</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/3BcNE/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-3BcNE" src="https://datawrapper.dwcdn.net/3BcNE/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/3BcNE/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/3BcNE/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>UmZ6b</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/UmZ6b/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-UmZ6b" src="https://datawrapper.dwcdn.net/UmZ6b/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/UmZ6b/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/UmZ6b/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>iHxJk</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/iHxJk/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-iHxJk" src="https://datawrapper.dwcdn.net/iHxJk/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/iHxJk/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/iHxJk/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>oAvNb</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/oAvNb/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-oAvNb" src="https://datawrapper.dwcdn.net/oAvNb/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/oAvNb/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/oAvNb/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton ZH</t>
   </si>
   <si>
-    <t>aZz39</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/aZz39/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Initiative für eine 13. AHV-Rente&amp;quot;" aria-label="Karte" id="datawrapper-chart-aZz39" src="https://datawrapper.dwcdn.net/aZz39/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/aZz39/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/aZz39/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>yb4gc</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/yb4gc/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="&amp;quot;Renteninitiative&amp;quot;" aria-label="Karte" id="datawrapper-chart-yb4gc" src="https://datawrapper.dwcdn.net/yb4gc/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/yb4gc/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/yb4gc/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>19ZsY</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/19ZsY/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Prämienentlastungs-Initiative" aria-label="Karte" id="datawrapper-chart-19ZsY" src="https://datawrapper.dwcdn.net/19ZsY/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/19ZsY/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/19ZsY/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Tl1GW</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Tl1GW/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Kostenbremse-Initiative" aria-label="Karte" id="datawrapper-chart-Tl1GW" src="https://datawrapper.dwcdn.net/Tl1GW/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Tl1GW/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Tl1GW/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>PGo6P</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/PGo6P/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="&amp;quot;Stopp-Impfpflicht&amp;quot;-Initiative" aria-label="Karte" id="datawrapper-chart-PGo6P" src="https://datawrapper.dwcdn.net/PGo6P/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/PGo6P/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/PGo6P/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>exxes</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/exxes/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Stromgesetz" aria-label="Karte" id="datawrapper-chart-exxes" src="https://datawrapper.dwcdn.net/exxes/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/exxes/embed.js?v=1" charset="utf-8"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/exxes/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1170,15 +2130,7 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1206,19 +2158,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1234,10 +2181,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1249,39 +2192,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1333,7 +2276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1444,6 +2387,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1452,13 +2402,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1523,31 +2466,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1555,23 +2478,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,22 +2528,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1631,22 +2554,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1657,22 +2580,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1683,22 +2606,22 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,22 +2632,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1735,22 +2658,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,22 +2684,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,22 +2710,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1813,22 +2736,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,22 +2762,22 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1865,22 +2788,22 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1891,22 +2814,22 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,22 +2840,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,22 +2866,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1969,22 +2892,334 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
         <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1993,21 +3228,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D903A31-A966-4D3D-9627-54F72F4D9A5E}">
-  <dimension ref="A1:H61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A58552-F5A1-4E7D-BA08-63FC0E336692}">
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2038,1203 +3273,1203 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="H18" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="H22" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="H23" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="H24" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="H25" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="H29" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="H30" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="H32" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="H33" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="F34" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="H34" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="H35" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="H36" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="H38" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="G39" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="G40" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="H40" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="F41" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="G41" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="H41" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="F42" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="G42" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="F43" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="G43" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="F44" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="G44" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="H44" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="F45" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="G45" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="H45" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="F46" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="G46" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="H46" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="F47" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="G47" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="H47" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -3243,363 +4478,1920 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="G48" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="H48" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="F49" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="G49" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="H49" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="F50" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="G50" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="H50" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="F51" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="G51" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="H51" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="G52" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="H52" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="F53" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="G53" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="H53" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="F54" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="G54" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="H54" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="F55" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="G55" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="H55" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="F56" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="G56" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="H56" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="F57" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="G57" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="H57" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="F58" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="G58" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="H58" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="F59" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="G59" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="H59" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>344</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>345</v>
+        <v>386</v>
+      </c>
+      <c r="F60" t="s">
+        <v>387</v>
       </c>
       <c r="G60" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="H60" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" t="s">
+        <v>390</v>
+      </c>
+      <c r="F61" t="s">
+        <v>391</v>
+      </c>
+      <c r="G61" t="s">
+        <v>392</v>
+      </c>
+      <c r="H61" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>395</v>
+      </c>
+      <c r="F62" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62" t="s">
+        <v>397</v>
+      </c>
+      <c r="H62" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>394</v>
+      </c>
+      <c r="B63" t="s">
         <v>13</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>399</v>
+      </c>
+      <c r="F63" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" t="s">
+        <v>401</v>
+      </c>
+      <c r="H63" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>394</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>403</v>
+      </c>
+      <c r="F64" t="s">
+        <v>404</v>
+      </c>
+      <c r="G64" t="s">
+        <v>405</v>
+      </c>
+      <c r="H64" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>394</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" t="s">
+        <v>408</v>
+      </c>
+      <c r="G65" t="s">
+        <v>409</v>
+      </c>
+      <c r="H65" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>411</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>412</v>
+      </c>
+      <c r="F66" t="s">
+        <v>413</v>
+      </c>
+      <c r="G66" t="s">
+        <v>414</v>
+      </c>
+      <c r="H66" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>411</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>416</v>
+      </c>
+      <c r="F67" t="s">
+        <v>417</v>
+      </c>
+      <c r="G67" t="s">
+        <v>418</v>
+      </c>
+      <c r="H67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>420</v>
+      </c>
+      <c r="F68" t="s">
+        <v>421</v>
+      </c>
+      <c r="G68" t="s">
+        <v>422</v>
+      </c>
+      <c r="H68" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>411</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>424</v>
+      </c>
+      <c r="F69" t="s">
+        <v>425</v>
+      </c>
+      <c r="G69" t="s">
+        <v>426</v>
+      </c>
+      <c r="H69" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>428</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>429</v>
+      </c>
+      <c r="F70" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" t="s">
+        <v>431</v>
+      </c>
+      <c r="H70" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>428</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" t="s">
+        <v>433</v>
+      </c>
+      <c r="F71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G71" t="s">
+        <v>435</v>
+      </c>
+      <c r="H71" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>428</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" t="s">
+        <v>437</v>
+      </c>
+      <c r="F72" t="s">
+        <v>438</v>
+      </c>
+      <c r="G72" t="s">
+        <v>439</v>
+      </c>
+      <c r="H72" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>428</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>441</v>
+      </c>
+      <c r="F73" t="s">
+        <v>442</v>
+      </c>
+      <c r="G73" t="s">
+        <v>443</v>
+      </c>
+      <c r="H73" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>445</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" t="s">
+        <v>446</v>
+      </c>
+      <c r="F74" t="s">
+        <v>447</v>
+      </c>
+      <c r="G74" t="s">
+        <v>448</v>
+      </c>
+      <c r="H74" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>445</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s">
+        <v>450</v>
+      </c>
+      <c r="F75" t="s">
+        <v>451</v>
+      </c>
+      <c r="G75" t="s">
+        <v>452</v>
+      </c>
+      <c r="H75" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>445</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" t="s">
+        <v>454</v>
+      </c>
+      <c r="F76" t="s">
+        <v>455</v>
+      </c>
+      <c r="G76" t="s">
+        <v>456</v>
+      </c>
+      <c r="H76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>445</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" t="s">
+        <v>458</v>
+      </c>
+      <c r="F77" t="s">
+        <v>459</v>
+      </c>
+      <c r="G77" t="s">
+        <v>460</v>
+      </c>
+      <c r="H77" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>462</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s">
+        <v>463</v>
+      </c>
+      <c r="F78" t="s">
+        <v>464</v>
+      </c>
+      <c r="G78" t="s">
+        <v>465</v>
+      </c>
+      <c r="H78" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" t="s">
+        <v>467</v>
+      </c>
+      <c r="F79" t="s">
+        <v>468</v>
+      </c>
+      <c r="G79" t="s">
+        <v>469</v>
+      </c>
+      <c r="H79" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>462</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" t="s">
+        <v>471</v>
+      </c>
+      <c r="F80" t="s">
+        <v>472</v>
+      </c>
+      <c r="G80" t="s">
+        <v>473</v>
+      </c>
+      <c r="H80" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>462</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s">
+        <v>475</v>
+      </c>
+      <c r="F81" t="s">
+        <v>476</v>
+      </c>
+      <c r="G81" t="s">
+        <v>477</v>
+      </c>
+      <c r="H81" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>479</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" t="s">
+        <v>480</v>
+      </c>
+      <c r="F82" t="s">
+        <v>481</v>
+      </c>
+      <c r="G82" t="s">
+        <v>482</v>
+      </c>
+      <c r="H82" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>479</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" t="s">
+        <v>484</v>
+      </c>
+      <c r="F83" t="s">
+        <v>485</v>
+      </c>
+      <c r="G83" t="s">
+        <v>486</v>
+      </c>
+      <c r="H83" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>479</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" t="s">
+        <v>488</v>
+      </c>
+      <c r="F84" t="s">
+        <v>489</v>
+      </c>
+      <c r="G84" t="s">
+        <v>490</v>
+      </c>
+      <c r="H84" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>479</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" t="s">
+        <v>492</v>
+      </c>
+      <c r="F85" t="s">
+        <v>493</v>
+      </c>
+      <c r="G85" t="s">
+        <v>494</v>
+      </c>
+      <c r="H85" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>496</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" t="s">
+        <v>497</v>
+      </c>
+      <c r="F86" t="s">
+        <v>498</v>
+      </c>
+      <c r="G86" t="s">
+        <v>499</v>
+      </c>
+      <c r="H86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>496</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s">
+        <v>501</v>
+      </c>
+      <c r="F87" t="s">
+        <v>502</v>
+      </c>
+      <c r="G87" t="s">
+        <v>503</v>
+      </c>
+      <c r="H87" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>496</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" t="s">
+        <v>505</v>
+      </c>
+      <c r="F88" t="s">
+        <v>506</v>
+      </c>
+      <c r="G88" t="s">
+        <v>507</v>
+      </c>
+      <c r="H88" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>496</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" t="s">
+        <v>509</v>
+      </c>
+      <c r="F89" t="s">
+        <v>510</v>
+      </c>
+      <c r="G89" t="s">
+        <v>511</v>
+      </c>
+      <c r="H89" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>513</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F90" t="s">
+        <v>515</v>
+      </c>
+      <c r="G90" t="s">
+        <v>516</v>
+      </c>
+      <c r="H90" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>513</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" t="s">
+        <v>518</v>
+      </c>
+      <c r="F91" t="s">
+        <v>519</v>
+      </c>
+      <c r="G91" t="s">
+        <v>520</v>
+      </c>
+      <c r="H91" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>513</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s">
+        <v>522</v>
+      </c>
+      <c r="F92" t="s">
+        <v>523</v>
+      </c>
+      <c r="G92" t="s">
+        <v>524</v>
+      </c>
+      <c r="H92" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>513</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>526</v>
+      </c>
+      <c r="F93" t="s">
+        <v>527</v>
+      </c>
+      <c r="G93" t="s">
+        <v>528</v>
+      </c>
+      <c r="H93" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>530</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>531</v>
+      </c>
+      <c r="F94" t="s">
+        <v>532</v>
+      </c>
+      <c r="G94" t="s">
+        <v>533</v>
+      </c>
+      <c r="H94" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>530</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>535</v>
+      </c>
+      <c r="F95" t="s">
+        <v>536</v>
+      </c>
+      <c r="G95" t="s">
+        <v>537</v>
+      </c>
+      <c r="H95" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>530</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
+        <v>539</v>
+      </c>
+      <c r="F96" t="s">
+        <v>540</v>
+      </c>
+      <c r="G96" t="s">
+        <v>541</v>
+      </c>
+      <c r="H96" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>530</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>543</v>
+      </c>
+      <c r="F97" t="s">
+        <v>544</v>
+      </c>
+      <c r="G97" t="s">
+        <v>545</v>
+      </c>
+      <c r="H97" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>547</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" t="s">
+        <v>548</v>
+      </c>
+      <c r="F98" t="s">
+        <v>549</v>
+      </c>
+      <c r="G98" t="s">
+        <v>550</v>
+      </c>
+      <c r="H98" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>547</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" t="s">
+        <v>552</v>
+      </c>
+      <c r="F99" t="s">
+        <v>553</v>
+      </c>
+      <c r="G99" t="s">
+        <v>554</v>
+      </c>
+      <c r="H99" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>547</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
+        <v>556</v>
+      </c>
+      <c r="F100" t="s">
+        <v>557</v>
+      </c>
+      <c r="G100" t="s">
+        <v>558</v>
+      </c>
+      <c r="H100" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>547</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>560</v>
+      </c>
+      <c r="F101" t="s">
+        <v>561</v>
+      </c>
+      <c r="G101" t="s">
+        <v>562</v>
+      </c>
+      <c r="H101" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
         <v>20</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" t="s">
+        <v>565</v>
+      </c>
+      <c r="F102" t="s">
+        <v>566</v>
+      </c>
+      <c r="G102" t="s">
+        <v>567</v>
+      </c>
+      <c r="H102" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>564</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
         <v>23</v>
       </c>
-      <c r="E61" t="s">
-        <v>348</v>
-      </c>
-      <c r="F61" t="s">
-        <v>349</v>
-      </c>
-      <c r="G61" t="s">
-        <v>350</v>
-      </c>
-      <c r="H61" t="s">
-        <v>351</v>
+      <c r="D103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" t="s">
+        <v>569</v>
+      </c>
+      <c r="F103" t="s">
+        <v>570</v>
+      </c>
+      <c r="G103" t="s">
+        <v>571</v>
+      </c>
+      <c r="H103" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>564</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" t="s">
+        <v>573</v>
+      </c>
+      <c r="F104" t="s">
+        <v>574</v>
+      </c>
+      <c r="G104" t="s">
+        <v>575</v>
+      </c>
+      <c r="H104" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>564</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" t="s">
+        <v>577</v>
+      </c>
+      <c r="F105" t="s">
+        <v>578</v>
+      </c>
+      <c r="G105" t="s">
+        <v>579</v>
+      </c>
+      <c r="H105" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>581</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" t="s">
+        <v>582</v>
+      </c>
+      <c r="F106" t="s">
+        <v>583</v>
+      </c>
+      <c r="G106" t="s">
+        <v>584</v>
+      </c>
+      <c r="H106" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>581</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" t="s">
+        <v>586</v>
+      </c>
+      <c r="F107" t="s">
+        <v>587</v>
+      </c>
+      <c r="G107" t="s">
+        <v>588</v>
+      </c>
+      <c r="H107" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>581</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" t="s">
+        <v>590</v>
+      </c>
+      <c r="F108" t="s">
+        <v>591</v>
+      </c>
+      <c r="G108" t="s">
+        <v>592</v>
+      </c>
+      <c r="H108" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>581</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" t="s">
+        <v>594</v>
+      </c>
+      <c r="F109" t="s">
+        <v>595</v>
+      </c>
+      <c r="G109" t="s">
+        <v>596</v>
+      </c>
+      <c r="H109" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>581</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" t="s">
+        <v>598</v>
+      </c>
+      <c r="F110" t="s">
+        <v>599</v>
+      </c>
+      <c r="G110" t="s">
+        <v>600</v>
+      </c>
+      <c r="H110" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>581</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" t="s">
+        <v>602</v>
+      </c>
+      <c r="F111" t="s">
+        <v>603</v>
+      </c>
+      <c r="G111" t="s">
+        <v>604</v>
+      </c>
+      <c r="H111" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>581</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" t="s">
+        <v>606</v>
+      </c>
+      <c r="F112" t="s">
+        <v>607</v>
+      </c>
+      <c r="G112" t="s">
+        <v>608</v>
+      </c>
+      <c r="H112" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>581</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" t="s">
+        <v>610</v>
+      </c>
+      <c r="F113" t="s">
+        <v>611</v>
+      </c>
+      <c r="G113" t="s">
+        <v>612</v>
+      </c>
+      <c r="H113" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>614</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
+        <v>615</v>
+      </c>
+      <c r="F114" t="s">
+        <v>616</v>
+      </c>
+      <c r="G114" t="s">
+        <v>617</v>
+      </c>
+      <c r="H114" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>614</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="s">
+        <v>619</v>
+      </c>
+      <c r="F115" t="s">
+        <v>620</v>
+      </c>
+      <c r="G115" t="s">
+        <v>621</v>
+      </c>
+      <c r="H115" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>614</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>623</v>
+      </c>
+      <c r="F116" t="s">
+        <v>624</v>
+      </c>
+      <c r="G116" t="s">
+        <v>625</v>
+      </c>
+      <c r="H116" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>614</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>627</v>
+      </c>
+      <c r="F117" t="s">
+        <v>628</v>
+      </c>
+      <c r="G117" t="s">
+        <v>629</v>
+      </c>
+      <c r="H117" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>631</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" t="s">
+        <v>632</v>
+      </c>
+      <c r="F118" t="s">
+        <v>633</v>
+      </c>
+      <c r="G118" t="s">
+        <v>634</v>
+      </c>
+      <c r="H118" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>631</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" t="s">
+        <v>636</v>
+      </c>
+      <c r="F119" t="s">
+        <v>637</v>
+      </c>
+      <c r="G119" t="s">
+        <v>638</v>
+      </c>
+      <c r="H119" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>631</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" t="s">
+        <v>640</v>
+      </c>
+      <c r="F120" t="s">
+        <v>641</v>
+      </c>
+      <c r="G120" t="s">
+        <v>642</v>
+      </c>
+      <c r="H120" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>631</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" t="s">
+        <v>644</v>
+      </c>
+      <c r="F121" t="s">
+        <v>645</v>
+      </c>
+      <c r="G121" t="s">
+        <v>646</v>
+      </c>
+      <c r="H121" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F60" r:id="rId1" xr:uid="{4A83D704-6BEB-4200-A874-CEC723D2B2F6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20240609_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD817D3-A12C-4A5B-93F4-91B535ED7305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F045E7AD-9FD8-4A21-BBB9-5348E1B57DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz" sheetId="1" r:id="rId1"/>
@@ -2480,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -3231,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A58552-F5A1-4E7D-BA08-63FC0E336692}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20240609_LENA_Abstimmungen\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20240609_LENA_Abstimmungen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F045E7AD-9FD8-4A21-BBB9-5348E1B57DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz" sheetId="1" r:id="rId1"/>
@@ -2182,9 +2182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2222,7 +2222,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2328,7 +2328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2470,7 +2470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2480,21 +2480,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="97" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3235,17 +3235,17 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="97" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>193</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>226</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>226</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>243</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>260</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>260</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>260</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>260</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>260</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>260</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>260</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>293</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>293</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>310</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>310</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>310</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>327</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>327</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>327</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>327</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>327</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>327</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>327</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>327</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>360</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>360</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>360</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>360</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>377</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>377</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>377</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>377</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>394</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>394</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>394</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>411</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>411</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>411</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>411</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>428</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>428</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>428</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>428</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>445</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>445</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>445</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>445</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>462</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>462</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>462</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>462</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>479</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>479</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>479</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>479</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>496</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>496</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>496</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>496</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>513</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>513</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>513</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>513</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>530</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>530</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>530</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>530</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>547</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>547</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>547</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>547</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>564</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>564</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>564</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>564</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>581</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>581</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>581</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>581</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>581</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>581</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>581</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>581</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>614</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>614</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>614</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>614</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>631</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>631</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>631</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>631</v>
       </c>
